--- a/ERP_Accounting/TestInput/InputSheet.xlsx
+++ b/ERP_Accounting/TestInput/InputSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="102">
   <si>
     <t>TCID</t>
   </si>
@@ -160,33 +160,18 @@
     <t>StockCategories</t>
   </si>
   <si>
-    <t>Wait for Supplier</t>
-  </si>
-  <si>
     <t>Click On Supplier</t>
   </si>
   <si>
-    <t>Wait for Add Button</t>
-  </si>
-  <si>
     <t>Click On Add Button</t>
   </si>
   <si>
-    <t>Wait  for SupplierNumber</t>
-  </si>
-  <si>
     <t>Capture Data</t>
   </si>
   <si>
-    <t>Wait for SupplierName</t>
-  </si>
-  <si>
     <t>Enter Supplier Name</t>
   </si>
   <si>
-    <t>Wait for Address</t>
-  </si>
-  <si>
     <t>Enter Address</t>
   </si>
   <si>
@@ -208,9 +193,6 @@
     <t>Enter Contact Person</t>
   </si>
   <si>
-    <t>Wait For Ph Number</t>
-  </si>
-  <si>
     <t>Enter Phone Number</t>
   </si>
   <si>
@@ -232,9 +214,6 @@
     <t>Wait For Notes</t>
   </si>
   <si>
-    <t>Enter the Note</t>
-  </si>
-  <si>
     <t>Wait For Add Button</t>
   </si>
   <si>
@@ -278,6 +257,72 @@
   </si>
   <si>
     <t>Add As New Supplier</t>
+  </si>
+  <si>
+    <t>//li[@id='mi_a_suppliers']//a[contains(text(),'Suppliers')]</t>
+  </si>
+  <si>
+    <t>//div[@class='panel-heading ewGridUpperPanel']//span[@class='glyphicon glyphicon-plus ewIcon']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Supplier_Number']</t>
+  </si>
+  <si>
+    <t>x_Supplier_Number</t>
+  </si>
+  <si>
+    <t>x_Supplier_Name</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Address']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_City']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Country']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Contact_Person']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Phone_Number']</t>
+  </si>
+  <si>
+    <t>//input[@id='x__Email']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Mobile_Number']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'OK!')]</t>
+  </si>
+  <si>
+    <t>//button[@class='ajs-button btn btn-primary']</t>
+  </si>
+  <si>
+    <t>Wait For Supplier</t>
+  </si>
+  <si>
+    <t>Wait For Address</t>
+  </si>
+  <si>
+    <t>Wait For Supplier Number</t>
+  </si>
+  <si>
+    <t>Wait For Supplier Name</t>
+  </si>
+  <si>
+    <t>Wait For Phone Number</t>
+  </si>
+  <si>
+    <t>Enter the Notes</t>
   </si>
 </sst>
 </file>
@@ -344,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -367,17 +412,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -395,8 +429,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -694,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -728,7 +762,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -740,7 +774,7 @@
         <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -767,7 +801,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1044,37 +1078,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="58.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1223,434 +1257,566 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="C11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8" t="s">
-        <v>49</v>
+      <c r="A12" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
+      <c r="C12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8" t="s">
-        <v>50</v>
+      <c r="A13" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="C13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="8" t="s">
-        <v>51</v>
+      <c r="A14" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
+      <c r="C14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="A15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="8" t="s">
-        <v>53</v>
+      <c r="A16" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8" t="s">
-        <v>54</v>
+      <c r="D16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="8" t="s">
-        <v>55</v>
+      <c r="D17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="8" t="s">
-        <v>56</v>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="8" t="s">
-        <v>57</v>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" t="s">
-        <v>26</v>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="8" t="s">
-        <v>58</v>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="8" t="s">
-        <v>59</v>
+        <v>75</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>26</v>
+      <c r="C22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E22" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="8" t="s">
-        <v>60</v>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
-        <v>26</v>
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="8" t="s">
-        <v>61</v>
+        <v>76</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C24" t="s">
-        <v>26</v>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="E24" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="8" t="s">
-        <v>62</v>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="8" t="s">
-        <v>63</v>
+        <v>77</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
+      <c r="C26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="8" t="s">
-        <v>64</v>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C27" t="s">
-        <v>26</v>
+      <c r="C27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="E27" s="2">
         <v>98123456789</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="8" t="s">
-        <v>66</v>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C28" t="s">
-        <v>26</v>
+      <c r="C28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="E28" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="8" t="s">
-        <v>67</v>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="8" t="s">
-        <v>68</v>
+      <c r="C29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C30" t="s">
-        <v>26</v>
+      <c r="C30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="E30" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="8" t="s">
-        <v>69</v>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
+      <c r="C31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="E31" s="2">
         <v>87987654321</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="8" t="s">
-        <v>70</v>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C32" t="s">
-        <v>26</v>
+      <c r="C32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="E32" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="8" t="s">
-        <v>71</v>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C33" t="s">
-        <v>26</v>
+      <c r="C33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="2">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="2">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="2">
+        <v>10</v>
+      </c>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E40" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="8" t="s">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C41" t="s">
-        <v>20</v>
-      </c>
+      <c r="C41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/ERP_Accounting/TestInput/InputSheet.xlsx
+++ b/ERP_Accounting/TestInput/InputSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="117">
   <si>
     <t>TCID</t>
   </si>
@@ -154,175 +154,220 @@
     <t>SupplierCreation</t>
   </si>
   <si>
+    <t>StockCategories</t>
+  </si>
+  <si>
+    <t>Click On Supplier</t>
+  </si>
+  <si>
+    <t>Click On Add Button</t>
+  </si>
+  <si>
+    <t>Capture Data</t>
+  </si>
+  <si>
+    <t>Enter Supplier Name</t>
+  </si>
+  <si>
+    <t>Enter Address</t>
+  </si>
+  <si>
+    <t>Wait For City</t>
+  </si>
+  <si>
+    <t>Enter City</t>
+  </si>
+  <si>
+    <t>Wait For Country</t>
+  </si>
+  <si>
+    <t>Enter Country</t>
+  </si>
+  <si>
+    <t>Wait For Contact Person</t>
+  </si>
+  <si>
+    <t>Enter Contact Person</t>
+  </si>
+  <si>
+    <t>Enter Phone Number</t>
+  </si>
+  <si>
+    <t>capturData</t>
+  </si>
+  <si>
+    <t>Wait For Email</t>
+  </si>
+  <si>
+    <t>Enter Email ID</t>
+  </si>
+  <si>
+    <t>Wait For Mobile Number</t>
+  </si>
+  <si>
+    <t>Enter Mobile Number</t>
+  </si>
+  <si>
+    <t>Wait For Notes</t>
+  </si>
+  <si>
+    <t>Wait For Add Button</t>
+  </si>
+  <si>
+    <t>Click For Add Button</t>
+  </si>
+  <si>
+    <t>Wait For Ok Button</t>
+  </si>
+  <si>
+    <t>Click On Ok</t>
+  </si>
+  <si>
+    <t>Wait For Alert</t>
+  </si>
+  <si>
+    <t>Click On Alert</t>
+  </si>
+  <si>
+    <t>Table Validation</t>
+  </si>
+  <si>
+    <t>tableValidation</t>
+  </si>
+  <si>
+    <t>Balkampet</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Add As New Supplier</t>
+  </si>
+  <si>
+    <t>//li[@id='mi_a_suppliers']//a[contains(text(),'Suppliers')]</t>
+  </si>
+  <si>
+    <t>//div[@class='panel-heading ewGridUpperPanel']//span[@class='glyphicon glyphicon-plus ewIcon']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Supplier_Number']</t>
+  </si>
+  <si>
+    <t>x_Supplier_Number</t>
+  </si>
+  <si>
+    <t>x_Supplier_Name</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Address']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_City']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Country']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Contact_Person']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Phone_Number']</t>
+  </si>
+  <si>
+    <t>//input[@id='x__Email']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Mobile_Number']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'OK!')]</t>
+  </si>
+  <si>
+    <t>//button[@class='ajs-button btn btn-primary']</t>
+  </si>
+  <si>
+    <t>Wait For Supplier</t>
+  </si>
+  <si>
+    <t>Wait For Address</t>
+  </si>
+  <si>
+    <t>Wait For Supplier Number</t>
+  </si>
+  <si>
+    <t>Wait For Supplier Name</t>
+  </si>
+  <si>
+    <t>Wait For Phone Number</t>
+  </si>
+  <si>
+    <t>Enter the Notes</t>
+  </si>
+  <si>
+    <t>Wait For Stock Item</t>
+  </si>
+  <si>
+    <t>Mouse Click</t>
+  </si>
+  <si>
+    <t>Wait For Category Name</t>
+  </si>
+  <si>
+    <t>Enter Category Name</t>
+  </si>
+  <si>
+    <t>Click On Ok Button</t>
+  </si>
+  <si>
+    <t>Wait For Alert Button</t>
+  </si>
+  <si>
+    <t>Click On Alert Button</t>
+  </si>
+  <si>
+    <t>Table bValidation</t>
+  </si>
+  <si>
+    <t>stockCategories</t>
+  </si>
+  <si>
+    <t>stockValidation</t>
+  </si>
+  <si>
+    <t>//li[@id='mi_a_stock_items']//a[contains(text(),'Stock Items')]</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Category_Name']</t>
+  </si>
+  <si>
+    <t>//button[@id='btnAction']</t>
+  </si>
+  <si>
+    <t>Srinivasha</t>
+  </si>
+  <si>
+    <t>Saurabh12</t>
+  </si>
+  <si>
+    <t>srinivash21@gmail.com</t>
+  </si>
+  <si>
+    <t>(//*[text()='OK'])[6]</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>StockCategories</t>
-  </si>
-  <si>
-    <t>Click On Supplier</t>
-  </si>
-  <si>
-    <t>Click On Add Button</t>
-  </si>
-  <si>
-    <t>Capture Data</t>
-  </si>
-  <si>
-    <t>Enter Supplier Name</t>
-  </si>
-  <si>
-    <t>Enter Address</t>
-  </si>
-  <si>
-    <t>Wait For City</t>
-  </si>
-  <si>
-    <t>Enter City</t>
-  </si>
-  <si>
-    <t>Wait For Country</t>
-  </si>
-  <si>
-    <t>Enter Country</t>
-  </si>
-  <si>
-    <t>Wait For Contact Person</t>
-  </si>
-  <si>
-    <t>Enter Contact Person</t>
-  </si>
-  <si>
-    <t>Enter Phone Number</t>
-  </si>
-  <si>
-    <t>capturData</t>
-  </si>
-  <si>
-    <t>Wait For Email</t>
-  </si>
-  <si>
-    <t>Enter Email ID</t>
-  </si>
-  <si>
-    <t>Wait For Mobile Number</t>
-  </si>
-  <si>
-    <t>Enter Mobile Number</t>
-  </si>
-  <si>
-    <t>Wait For Notes</t>
-  </si>
-  <si>
-    <t>Wait For Add Button</t>
-  </si>
-  <si>
-    <t>Click For Add Button</t>
-  </si>
-  <si>
-    <t>Wait For Ok Button</t>
-  </si>
-  <si>
-    <t>Click On Ok</t>
-  </si>
-  <si>
-    <t>Wait For Alert</t>
-  </si>
-  <si>
-    <t>Click On Alert</t>
-  </si>
-  <si>
-    <t>Table Validation</t>
-  </si>
-  <si>
-    <t>tableValidation</t>
-  </si>
-  <si>
-    <t>Srinivash</t>
-  </si>
-  <si>
-    <t>Balkampet</t>
-  </si>
-  <si>
-    <t>Hyderabad</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Saurabh</t>
-  </si>
-  <si>
-    <t>srinivash@gmail.com</t>
-  </si>
-  <si>
-    <t>Add As New Supplier</t>
-  </si>
-  <si>
-    <t>//li[@id='mi_a_suppliers']//a[contains(text(),'Suppliers')]</t>
-  </si>
-  <si>
-    <t>//div[@class='panel-heading ewGridUpperPanel']//span[@class='glyphicon glyphicon-plus ewIcon']</t>
-  </si>
-  <si>
-    <t>//input[@id='x_Supplier_Number']</t>
-  </si>
-  <si>
-    <t>x_Supplier_Number</t>
-  </si>
-  <si>
-    <t>x_Supplier_Name</t>
-  </si>
-  <si>
-    <t>//textarea[@id='x_Address']</t>
-  </si>
-  <si>
-    <t>//input[@id='x_City']</t>
-  </si>
-  <si>
-    <t>//input[@id='x_Country']</t>
-  </si>
-  <si>
-    <t>//input[@id='x_Contact_Person']</t>
-  </si>
-  <si>
-    <t>//input[@id='x_Phone_Number']</t>
-  </si>
-  <si>
-    <t>//input[@id='x__Email']</t>
-  </si>
-  <si>
-    <t>//input[@id='x_Mobile_Number']</t>
-  </si>
-  <si>
-    <t>//textarea[@id='x_Notes']</t>
-  </si>
-  <si>
-    <t>btnAction</t>
-  </si>
-  <si>
-    <t>//button[contains(text(),'OK!')]</t>
-  </si>
-  <si>
-    <t>//button[@class='ajs-button btn btn-primary']</t>
-  </si>
-  <si>
-    <t>Wait For Supplier</t>
-  </si>
-  <si>
-    <t>Wait For Address</t>
-  </si>
-  <si>
-    <t>Wait For Supplier Number</t>
-  </si>
-  <si>
-    <t>Wait For Supplier Name</t>
-  </si>
-  <si>
-    <t>Wait For Phone Number</t>
-  </si>
-  <si>
-    <t>Enter the Notes</t>
+    <t>Asus Zenfone93</t>
   </si>
 </sst>
 </file>
@@ -728,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -762,7 +807,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -774,7 +819,7 @@
         <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -783,10 +828,10 @@
         <v>43</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7"/>
     </row>
@@ -1078,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1088,7 +1133,7 @@
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="58.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1258,7 +1303,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -1267,7 +1312,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
@@ -1276,7 +1321,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
@@ -1285,14 +1330,14 @@
         <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -1301,7 +1346,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
@@ -1310,7 +1355,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
@@ -1319,14 +1364,14 @@
         <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
@@ -1335,7 +1380,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
@@ -1344,23 +1389,23 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -1369,7 +1414,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
@@ -1378,7 +1423,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -1387,16 +1432,16 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
@@ -1405,7 +1450,7 @@
         <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
@@ -1414,7 +1459,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -1423,16 +1468,16 @@
         <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
@@ -1441,7 +1486,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
@@ -1450,7 +1495,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -1459,16 +1504,16 @@
         <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -1477,7 +1522,7 @@
         <v>26</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E22" s="2">
         <v>10</v>
@@ -1486,7 +1531,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -1495,16 +1540,16 @@
         <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -1513,7 +1558,7 @@
         <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E24" s="2">
         <v>10</v>
@@ -1522,7 +1567,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -1531,16 +1576,16 @@
         <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
@@ -1549,7 +1594,7 @@
         <v>26</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
@@ -1558,7 +1603,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
@@ -1567,7 +1612,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E27" s="2">
         <v>98123456789</v>
@@ -1576,7 +1621,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
@@ -1585,7 +1630,7 @@
         <v>26</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E28" s="2">
         <v>10</v>
@@ -1594,7 +1639,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
@@ -1603,16 +1648,16 @@
         <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
@@ -1621,7 +1666,7 @@
         <v>26</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E30" s="2">
         <v>10</v>
@@ -1630,7 +1675,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
@@ -1639,16 +1684,16 @@
         <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E31" s="2">
-        <v>87987654321</v>
+        <v>875987654321</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>21</v>
@@ -1657,7 +1702,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E32" s="2">
         <v>10</v>
@@ -1666,7 +1711,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>23</v>
@@ -1675,16 +1720,16 @@
         <v>26</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>21</v>
@@ -1693,7 +1738,7 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E34" s="2">
         <v>10</v>
@@ -1702,7 +1747,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>25</v>
@@ -1711,14 +1756,14 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>21</v>
@@ -1727,7 +1772,7 @@
         <v>26</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E36" s="2">
         <v>10</v>
@@ -1736,7 +1781,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>25</v>
@@ -1745,14 +1790,14 @@
         <v>26</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>21</v>
@@ -1761,7 +1806,7 @@
         <v>26</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E38" s="2">
         <v>10</v>
@@ -1770,7 +1815,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>25</v>
@@ -1779,17 +1824,17 @@
         <v>26</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>20</v>
@@ -1828,12 +1873,438 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="68" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="9">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>